--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N2">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O2">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P2">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q2">
-        <v>0.3751734934591111</v>
+        <v>0.226654050525</v>
       </c>
       <c r="R2">
-        <v>3.376561441132</v>
+        <v>2.039886454725</v>
       </c>
       <c r="S2">
-        <v>0.002486997817990218</v>
+        <v>0.002315576019469988</v>
       </c>
       <c r="T2">
-        <v>0.002486997817990217</v>
+        <v>0.002315576019469988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H3">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.878373</v>
       </c>
       <c r="O3">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P3">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q3">
-        <v>82.72793857623654</v>
+        <v>45.954530797007</v>
       </c>
       <c r="R3">
-        <v>744.5514471861289</v>
+        <v>413.590777173063</v>
       </c>
       <c r="S3">
-        <v>0.5483974915950516</v>
+        <v>0.4694873497873238</v>
       </c>
       <c r="T3">
-        <v>0.5483974915950515</v>
+        <v>0.4694873497873238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H4">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N4">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P4">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q4">
-        <v>6.863962391922777</v>
+        <v>3.842106960748</v>
       </c>
       <c r="R4">
-        <v>61.775661527305</v>
+        <v>34.578962646732</v>
       </c>
       <c r="S4">
-        <v>0.04550070777678576</v>
+        <v>0.03925229097798753</v>
       </c>
       <c r="T4">
-        <v>0.04550070777678576</v>
+        <v>0.03925229097798753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H5">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N5">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O5">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P5">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q5">
-        <v>0.05094821489266666</v>
+        <v>0.243974183796</v>
       </c>
       <c r="R5">
-        <v>0.4585339340339999</v>
+        <v>2.195767654164</v>
       </c>
       <c r="S5">
-        <v>0.0003377320132622007</v>
+        <v>0.002492524479748787</v>
       </c>
       <c r="T5">
-        <v>0.0003377320132622007</v>
+        <v>0.002492524479748787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J6">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N6">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O6">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P6">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q6">
-        <v>0.01194879466622222</v>
+        <v>0.01299509030833333</v>
       </c>
       <c r="R6">
-        <v>0.107539151996</v>
+        <v>0.116955812775</v>
       </c>
       <c r="S6">
-        <v>7.920769132307194E-05</v>
+        <v>0.0001327623283992644</v>
       </c>
       <c r="T6">
-        <v>7.920769132307192E-05</v>
+        <v>0.0001327623283992644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.878373</v>
       </c>
       <c r="O7">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P7">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q7">
         <v>2.634778758204111</v>
@@ -883,10 +883,10 @@
         <v>23.713008823837</v>
       </c>
       <c r="S7">
-        <v>0.01746575687457183</v>
+        <v>0.02691780930000811</v>
       </c>
       <c r="T7">
-        <v>0.01746575687457183</v>
+        <v>0.02691780930000811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J8">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N8">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P8">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q8">
-        <v>0.2186084002405556</v>
+        <v>0.2202851738742222</v>
       </c>
       <c r="R8">
-        <v>1.967475602165</v>
+        <v>1.982566564868</v>
       </c>
       <c r="S8">
-        <v>0.001449139195255668</v>
+        <v>0.002250509377116395</v>
       </c>
       <c r="T8">
-        <v>0.001449139195255668</v>
+        <v>0.002250509377116395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J9">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N9">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O9">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P9">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q9">
-        <v>0.001622635311333333</v>
+        <v>0.013988131004</v>
       </c>
       <c r="R9">
-        <v>0.014603717802</v>
+        <v>0.125893179036</v>
       </c>
       <c r="S9">
-        <v>1.075633153470553E-05</v>
+        <v>0.0001429075749365192</v>
       </c>
       <c r="T9">
-        <v>1.075633153470553E-05</v>
+        <v>0.0001429075749365192</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H10">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N10">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O10">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P10">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q10">
-        <v>0.1114671913791111</v>
+        <v>0.1181290527166667</v>
       </c>
       <c r="R10">
-        <v>1.003204722412</v>
+        <v>1.06316147445</v>
       </c>
       <c r="S10">
-        <v>0.0007389079094617874</v>
+        <v>0.001206847179831221</v>
       </c>
       <c r="T10">
-        <v>0.0007389079094617873</v>
+        <v>0.001206847179831221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H11">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.878373</v>
       </c>
       <c r="O11">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P11">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q11">
-        <v>24.57916436647655</v>
+        <v>23.95088540670289</v>
       </c>
       <c r="R11">
-        <v>221.212479298289</v>
+        <v>215.557968660326</v>
       </c>
       <c r="S11">
-        <v>0.1629334940052535</v>
+        <v>0.2446905129838729</v>
       </c>
       <c r="T11">
-        <v>0.1629334940052535</v>
+        <v>0.2446905129838729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N12">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P12">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q12">
-        <v>2.039340792722778</v>
+        <v>2.002454642473778</v>
       </c>
       <c r="R12">
-        <v>18.354067134505</v>
+        <v>18.022091782264</v>
       </c>
       <c r="S12">
-        <v>0.01351864188185979</v>
+        <v>0.02045776786008589</v>
       </c>
       <c r="T12">
-        <v>0.01351864188185979</v>
+        <v>0.02045776786008589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H13">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N13">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O13">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P13">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q13">
-        <v>0.01513714193266667</v>
+        <v>0.127156073992</v>
       </c>
       <c r="R13">
-        <v>0.136234277394</v>
+        <v>1.144404665928</v>
       </c>
       <c r="S13">
-        <v>0.0001003430136016609</v>
+        <v>0.001299070345241194</v>
       </c>
       <c r="T13">
-        <v>0.0001003430136016609</v>
+        <v>0.001299070345241194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H14">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I14">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J14">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03156133333333334</v>
+        <v>0.034325</v>
       </c>
       <c r="N14">
-        <v>0.094684</v>
+        <v>0.102975</v>
       </c>
       <c r="O14">
-        <v>0.004167759769700065</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="P14">
-        <v>0.004167759769700064</v>
+        <v>0.004508979075184418</v>
       </c>
       <c r="Q14">
-        <v>0.1301336264773333</v>
+        <v>0.08357132921666667</v>
       </c>
       <c r="R14">
-        <v>1.171202638296</v>
+        <v>0.75214196295</v>
       </c>
       <c r="S14">
-        <v>0.0008626463509249879</v>
+        <v>0.0008537935474839444</v>
       </c>
       <c r="T14">
-        <v>0.0008626463509249878</v>
+        <v>0.0008537935474839445</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H15">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I15">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J15">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>20.878373</v>
       </c>
       <c r="O15">
-        <v>0.919015282900934</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="P15">
-        <v>0.9190152829009339</v>
+        <v>0.9142039036746329</v>
       </c>
       <c r="Q15">
-        <v>28.69522193228466</v>
+        <v>16.94424261705622</v>
       </c>
       <c r="R15">
-        <v>258.256997390562</v>
+        <v>152.498183553506</v>
       </c>
       <c r="S15">
-        <v>0.1902185404260571</v>
+        <v>0.173108231603428</v>
       </c>
       <c r="T15">
-        <v>0.1902185404260571</v>
+        <v>0.1731082316034281</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H16">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I16">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J16">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5774283333333333</v>
+        <v>0.5818573333333333</v>
       </c>
       <c r="N16">
-        <v>1.732285</v>
+        <v>1.745572</v>
       </c>
       <c r="O16">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="P16">
-        <v>0.07625097939097288</v>
+        <v>0.0764335772976724</v>
       </c>
       <c r="Q16">
-        <v>2.380851349143333</v>
+        <v>1.416652316420445</v>
       </c>
       <c r="R16">
-        <v>21.42766214229</v>
+        <v>12.749870847784</v>
       </c>
       <c r="S16">
-        <v>0.01578249053707165</v>
+        <v>0.01447300908248258</v>
       </c>
       <c r="T16">
-        <v>0.01578249053707165</v>
+        <v>0.01447300908248258</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.004286</v>
+        <v>0.036948</v>
       </c>
       <c r="N17">
-        <v>0.012858</v>
+        <v>0.110844</v>
       </c>
       <c r="O17">
-        <v>0.0005659779383930065</v>
+        <v>0.004853539952510238</v>
       </c>
       <c r="P17">
-        <v>0.0005659779383930064</v>
+        <v>0.004853539952510237</v>
       </c>
       <c r="Q17">
-        <v>0.017672026628</v>
+        <v>0.089957566552</v>
       </c>
       <c r="R17">
-        <v>0.159048239652</v>
+        <v>0.8096180989680001</v>
       </c>
       <c r="S17">
-        <v>0.0001171465799944393</v>
+        <v>0.0009190375525837373</v>
       </c>
       <c r="T17">
-        <v>0.0001171465799944393</v>
+        <v>0.0009190375525837373</v>
       </c>
     </row>
   </sheetData>
